--- a/Excel/singer_copy2.xlsx
+++ b/Excel/singer_copy2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New_senior" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New_junior" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="New_senior" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New_junior" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,38 @@
         <v>1114600</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>MMU</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>마마무</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2014.06.19</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
